--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -28,11 +28,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -51,7 +51,8 @@
 procurment and preparation. For example for an imaging assay, the protocol might
 include staining of a section through the creation of an OME-TIFF file. In this
 case the protocol would include any image processing steps required to create
-the OME-TIFF file.</t>
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -67,7 +68,8 @@
     <comment ref="F1" authorId="1">
       <text>
         <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -172,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -210,6 +212,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -222,30 +230,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -288,114 +296,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -411,6 +413,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -582,18 +590,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -612,6 +626,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -654,36 +680,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -837,7 +845,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T15:12:57-07:00</t>
+    <t>2023-10-06T19:31:48-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -976,49 +984,49 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
@@ -1026,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1043,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1386,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1470,6 +1478,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1503,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1510,114 +1526,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1635,258 +1651,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1904,42 +1920,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1957,26 +1973,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2000,16 +2016,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
@@ -2017,13 +2033,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -131,15 +131,22 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) This is the location of the antibodies.tsv file relative to the root
+of the top level of the upload directory structure. This path should begin with
+"." and would likely be something like "./extras/antibodies.tsv".</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
+        <t>(Required) Number of antibodies</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
         <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
 a biomarker imaging round consists of 1. oligo application, 2. fluor
@@ -148,13 +155,13 @@
 inactivation.</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="S1" authorId="1">
       <text>
         <t>(Required) The total number of acquisitions performed on microscope to collect
 autofluorescence/background or stained signal (e.g., histology).</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) A unique ID denoting the slide used. This allows users the ability to
 determine which tissue sections were processed together on the same slide. It is
@@ -162,7 +169,7 @@
 values overlapping across centers.</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -174,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -596,12 +603,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -734,6 +753,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -812,6 +843,9 @@
     <t>data_path</t>
   </si>
   <si>
+    <t>antibodies_path</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -845,7 +879,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:31:48-07:00</t>
+    <t>2023-10-16T20:49:02-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -904,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -920,6 +954,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -939,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -959,12 +994,13 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="20.875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="19.44140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="36.0" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="30.91015625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -993,48 +1029,51 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
-        <v>218</v>
+      <c r="U2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1091,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1068,10 +1107,6 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -1081,6 +1116,10 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -1643,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1903,6 +1942,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1920,42 +1991,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1973,26 +2044,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2016,16 +2087,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -2033,13 +2104,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -28,11 +28,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -213,6 +214,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -273,12 +280,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -516,12 +517,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -534,6 +529,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -879,7 +880,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:49:02-07:00</t>
+    <t>2023-10-27T18:06:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -208,12 +208,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -316,12 +310,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -340,6 +328,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -586,6 +580,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -640,6 +640,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -880,7 +886,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:06:19-07:00</t>
+    <t>2023-11-02T15:44:08-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1018,69 +1024,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1092,7 +1098,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1133,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1417,14 +1423,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1442,90 +1440,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1543,12 +1541,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1566,114 +1564,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1691,290 +1689,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1992,42 +2006,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2045,26 +2059,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2088,30 +2102,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -886,7 +886,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:44:08-07:00</t>
+    <t>2023-11-07T20:04:25-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -214,18 +214,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -238,22 +238,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -280,12 +274,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -298,6 +286,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -310,18 +304,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -334,10 +316,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -352,10 +334,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -370,12 +352,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -394,18 +394,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -886,7 +874,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:04:25-08:00</t>
+    <t>2023-11-15T17:12:41-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1024,69 +1012,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>221</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>224</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>225</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>226</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>227</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1139,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1407,22 +1395,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1440,90 +1412,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1541,12 +1513,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1564,114 +1536,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1689,306 +1661,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2006,42 +1978,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2059,26 +2031,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2102,30 +2074,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -874,7 +874,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:12:41-08:00</t>
+    <t>2023-11-24T09:43:17-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="257">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -475,6 +475,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -517,6 +529,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -553,6 +577,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -586,6 +616,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -604,18 +640,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -640,6 +700,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -700,6 +766,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -874,7 +946,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:43:17-08:00</t>
+    <t>2024-01-29T14:11:14-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -975,27 +1047,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="13.14453125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="18.0078125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="31.0546875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="26.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1021,54 +1093,54 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>224</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
-        <v>225</v>
+      <c r="U2" t="s" s="22">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1083,10 +1155,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1100,7 +1172,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1134,266 +1206,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1411,90 +1483,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1512,12 +1584,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -1528,122 +1600,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1653,314 +1765,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>141</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>143</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>145</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" t="s">
-        <v>149</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>153</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>157</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>169</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" t="s">
-        <v>181</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>183</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" t="s">
-        <v>193</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>197</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B38" t="s">
-        <v>201</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1977,43 +2145,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2030,27 +2198,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2066,38 +2234,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" t="s">
-        <v>231</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>255</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="271">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -292,6 +292,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -397,6 +403,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -517,6 +529,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -571,6 +589,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -640,6 +664,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
@@ -700,6 +730,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -784,6 +820,12 @@
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
     <t>MIBIscope</t>
   </si>
   <si>
@@ -946,7 +988,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:11:14-08:00</t>
+    <t>2024-03-19T13:08:10-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1084,81 +1126,81 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1199,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1469,6 +1511,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1476,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,90 +1534,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1585,12 +1643,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1608,154 +1666,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1773,362 +1847,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2146,42 +2244,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2199,26 +2297,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2242,30 +2340,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -547,6 +547,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -634,16 +640,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -652,12 +784,6 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -676,34 +802,16 @@
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -718,12 +826,6 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -766,12 +868,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -784,42 +880,12 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -832,18 +898,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -856,36 +910,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -988,7 +1012,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-19T13:08:10-07:00</t>
+    <t>2024-04-01T14:47:41-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1135,46 +1159,46 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
@@ -1182,7 +1206,7 @@
         <v>38</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1197,10 +1221,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1658,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1832,6 +1856,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1839,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,386 +1879,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2244,42 +2300,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2297,26 +2353,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2340,16 +2396,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -2357,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="291">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -244,6 +244,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -340,6 +346,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -421,22 +433,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -463,27 +505,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -532,7 +562,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -640,6 +670,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1012,7 +1048,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:47:41-07:00</t>
+    <t>2024-08-03T11:41:05-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1150,72 +1186,72 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1224,7 +1260,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1265,7 +1301,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1543,6 +1579,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1550,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,98 +1610,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1667,12 +1743,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1690,178 +1766,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1879,410 +1955,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2300,42 +2384,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2353,26 +2437,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2396,30 +2480,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="299">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -322,6 +322,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -346,6 +352,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -421,18 +433,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -445,13 +457,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -487,24 +505,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -607,6 +625,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1048,7 +1072,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:41:05-07:00</t>
+    <t>2025-01-08T12:42:13-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1186,55 +1210,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -1242,22 +1266,22 @@
         <v>40</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1301,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1595,6 +1619,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1602,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1610,122 +1650,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1743,12 +1791,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1766,178 +1814,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1955,418 +2011,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2384,42 +2440,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2437,26 +2493,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2480,16 +2536,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -2497,13 +2553,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -49,11 +49,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -102,8 +102,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -150,10 +150,10 @@
     <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo application, 2. fluor
-application, 3. washes. For Cell DIVE a biomarker imaging round consists of 1.
-staining of a biomarker via secondary detection or direct conjugate and 2. dye
-inactivation.</t>
+a biomarker imaging round consists of 1. oligo and fluor application, 2.
+imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
+imaging round consists of 1. staining of a biomarker via secondary detection or
+direct conjugate and 2. dye inactivation.</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="337">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -268,10 +268,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -370,6 +370,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -424,6 +430,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -535,40 +553,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -577,12 +661,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -595,18 +673,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -631,48 +697,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -724,6 +760,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -742,12 +784,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -760,12 +820,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -778,12 +850,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -808,6 +898,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -850,6 +946,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -928,6 +1030,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -970,6 +1078,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1072,7 +1186,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:42:13-08:00</t>
+    <t>2025-04-24T10:47:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1210,55 +1324,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -1266,13 +1380,13 @@
         <v>40</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1281,10 +1395,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1325,7 +1439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1633,6 +1747,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1650,130 +1788,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1791,12 +1929,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1814,186 +1952,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2011,418 +2173,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2440,42 +2714,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2493,26 +2767,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2536,16 +2810,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -2553,13 +2827,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="341">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -922,6 +922,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -991,7 +1003,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1186,7 +1198,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:47:47-07:00</t>
+    <t>2025-05-12T10:13:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1336,43 +1348,43 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -1380,7 +1392,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1410,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2165,7 +2177,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,26 +2633,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -2697,6 +2709,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2714,42 +2742,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2767,26 +2795,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2810,16 +2838,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -2827,13 +2855,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="345">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -247,7 +247,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -340,6 +340,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -577,6 +583,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1198,7 +1210,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:13:59-07:00</t>
+    <t>2025-06-04T13:59:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1336,55 +1348,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -1392,13 +1404,13 @@
         <v>40</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1407,7 +1419,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -1451,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1783,6 +1795,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1800,130 +1820,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1941,12 +1961,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1976,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1964,210 +1984,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2185,546 +2213,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2742,42 +2770,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2795,26 +2823,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2838,16 +2866,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
@@ -2855,13 +2883,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="377">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -202,6 +202,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -238,6 +244,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -247,7 +259,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -274,6 +286,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -400,6 +418,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
+    <t>Pixel-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
@@ -418,6 +442,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -448,6 +478,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
   </si>
   <si>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -589,6 +625,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -703,12 +745,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -742,6 +796,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -850,6 +910,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -928,6 +994,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -964,6 +1036,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1078,6 +1156,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1090,6 +1174,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1114,6 +1204,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1210,7 +1306,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-04T13:59:18-07:00</t>
+    <t>2025-07-24T21:13:41-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1348,69 +1444,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1419,10 +1515,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1463,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,6 +1899,54 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1820,130 +1964,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1961,12 +2105,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2120,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,218 +2128,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2213,546 +2381,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2770,42 +2994,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2823,26 +3047,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2866,30 +3090,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>344</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -28,152 +28,161 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) This is the location of the antibodies.tsv file relative to the root
-of the top level of the upload directory structure. This path should begin with
-"." and would likely be something like "./extras/antibodies.tsv".</t>
+        <t>(Required) The path to the antibodies.tsv file relative to the root directory of
+the upload structure. This path should start with "." and is typically formatted
+as "./extras/antibodies.tsv". Example: ./extras/antibodies.tsv</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) The number of antibodies used in the assay. If no antibodies were
+utilized, enter 0. Example: 5</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
+        <t>(Required) The number of fluorescent channels that are imaged during each cycle.
+Example: 3</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo and fluor application, 2.
-imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
-imaging round consists of 1. staining of a biomarker via secondary detection or
-direct conjugate and 2. dye inactivation.</t>
+        <t>(Required) The number of imaging rounds required to capture the tagged
+biomarkers. For CODEX, a biomarker imaging round includes steps such as (1)
+oligo application, (2) fluor application, and (3) washes. For Cell DIVE, it
+involves (1) the staining of a biomarker via secondary detection or direct
+conjugate, followed by (2) dye inactivation. Example: 3</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) The total number of acquisitions performed on microscope to collect
-autofluorescence/background or stained signal (e.g., histology).</t>
+        <t>(Required) The total number of imaging rounds performed using a microscope to
+collect either autofluorescence/background or stained signals, such as those
+used in histological analysis. Example: 5</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -182,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="384">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -202,48 +211,174 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
     <t>FACS</t>
   </si>
   <si>
@@ -256,42 +391,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -322,16 +421,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -340,30 +433,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -394,18 +469,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -418,18 +481,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>Pixel-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -442,42 +493,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>4i</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
-  </si>
-  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -1132,6 +1153,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1162,6 +1186,12 @@
     <t>https://identifiers.org/RRID:SCR_027095</t>
   </si>
   <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1306,7 +1336,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-24T21:13:41-07:00</t>
+    <t>2025-10-17T13:44:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1444,69 +1474,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$48</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1518,7 +1548,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1559,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1947,6 +1977,22 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1964,130 +2010,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2105,12 +2151,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2128,242 +2174,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2419,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2381,602 +2427,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>168</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>323</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>345</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2994,42 +3056,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3047,26 +3109,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3090,30 +3152,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -259,6 +259,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -514,18 +520,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1336,7 +1342,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:15-07:00</t>
+    <t>2025-11-19T14:38:15-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1474,69 +1480,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1589,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,6 +1999,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2010,130 +2024,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2151,12 +2165,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2174,242 +2188,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2427,618 +2441,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3056,42 +3070,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3109,26 +3123,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3152,30 +3166,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/cycif/v2.1.0/cycif-v2.1.0.xlsx
+++ b/cycif/v2.1.0/cycif-v2.1.0.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="388">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -520,6 +520,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1342,7 +1348,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:38:15-08:00</t>
+    <t>2025-11-20T09:39:16-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1483,52 +1489,52 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
@@ -1536,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="U2" t="s" s="22">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1551,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2016,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2148,6 +2154,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2165,12 +2179,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2188,242 +2202,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2441,474 +2455,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -2916,143 +2930,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3070,42 +3084,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3123,26 +3137,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3166,16 +3180,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
@@ -3183,13 +3197,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
